--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -1052,25 +1052,25 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L15">
         <v>156</v>
       </c>
       <c r="M15">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,25 +1234,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5657492354740061</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L22">
         <v>185</v>
       </c>
       <c r="M22">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="10:17">
